--- a/data/RawData/ObsData/2009-2022/2020/03-03-2020.xlsx
+++ b/data/RawData/ObsData/2009-2022/2020/03-03-2020.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905D251-3674-428C-82E0-749B246BAF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD79492-B228-4C2F-9B5D-EF291818E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Z$175</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="443">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1353,6 +1356,9 @@
   </si>
   <si>
     <t>Estrada PDA</t>
+  </si>
+  <si>
+    <t>12/19</t>
   </si>
 </sst>
 </file>
@@ -2707,9 +2713,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3015,6 +3018,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3367,33 +3373,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" style="153" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="153" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>434</v>
       </c>
@@ -3416,7 +3422,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3435,11 +3441,11 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="199" t="s">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="200"/>
+      <c r="B3" s="199"/>
       <c r="C3" s="77"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -3450,7 +3456,7 @@
       <c r="J3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="202"/>
+      <c r="K3" s="201"/>
       <c r="L3" s="77"/>
       <c r="M3" s="11"/>
       <c r="N3" s="12"/>
@@ -3458,7 +3464,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="19"/>
-      <c r="J4" s="201" t="s">
+      <c r="J4" s="200" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="64" t="s">
@@ -3509,7 +3515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
@@ -3558,7 +3564,7 @@
       </c>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>23</v>
       </c>
@@ -3654,7 +3660,7 @@
       </c>
       <c r="Q7" s="25"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
@@ -3703,7 +3709,7 @@
       </c>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -3750,7 +3756,7 @@
       </c>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3789,7 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="32"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="28">
         <v>1388</v>
@@ -3949,7 +3955,7 @@
       <c r="P14" s="60"/>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -3963,14 +3969,14 @@
         <v>52</v>
       </c>
       <c r="K15" s="77"/>
-      <c r="L15" s="203"/>
+      <c r="L15" s="202"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>50</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="19"/>
-      <c r="J16" s="196" t="s">
+      <c r="J16" s="195" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="78" t="s">
@@ -4019,7 +4025,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -4066,7 +4072,7 @@
       </c>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>53</v>
       </c>
@@ -4111,7 +4117,7 @@
       </c>
       <c r="Q18" s="36"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>53</v>
       </c>
@@ -4150,7 +4156,7 @@
       </c>
       <c r="Q19" s="36"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>53</v>
       </c>
@@ -4189,7 +4195,7 @@
       </c>
       <c r="Q20" s="36"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>53</v>
       </c>
@@ -4222,7 +4228,7 @@
       </c>
       <c r="Q21" s="49"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="135"/>
       <c r="B22" s="126"/>
       <c r="C22" s="126"/>
@@ -4241,8 +4247,8 @@
       <c r="P22" s="50"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="211" t="s">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="210" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="77"/>
@@ -4276,8 +4282,8 @@
       </c>
       <c r="Q23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="195"/>
       <c r="B24" s="132"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -4309,7 +4315,7 @@
       </c>
       <c r="Q24" s="53"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>393</v>
       </c>
@@ -4328,8 +4334,8 @@
       <c r="F25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="165">
-        <v>43809</v>
+      <c r="G25" s="274" t="s">
+        <v>442</v>
       </c>
       <c r="H25" s="29">
         <v>4145</v>
@@ -4356,7 +4362,7 @@
       </c>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="157"/>
       <c r="B26" s="60"/>
       <c r="C26" s="61"/>
@@ -4387,7 +4393,7 @@
       </c>
       <c r="Q26" s="25"/>
     </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>89</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="147" t="s">
         <v>422</v>
       </c>
@@ -4481,7 +4487,7 @@
       <c r="Q28" s="25"/>
       <c r="Z28" s="83"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="97" t="s">
         <v>416</v>
@@ -4524,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
       <c r="B30" s="94" t="s">
         <v>417</v>
@@ -4564,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="101"/>
       <c r="B31" s="97" t="s">
         <v>423</v>
@@ -4590,19 +4596,19 @@
       <c r="I31" s="19">
         <v>4441</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="225"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="225"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="225"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="224"/>
       <c r="U31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="101"/>
       <c r="B32" s="94" t="s">
         <v>424</v>
@@ -4630,9 +4636,9 @@
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
-      <c r="Q32" s="181"/>
-    </row>
-    <row r="33" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="180"/>
+    </row>
+    <row r="33" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="163" t="s">
         <v>0</v>
       </c>
@@ -4651,7 +4657,7 @@
       <c r="F33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="166" t="s">
+      <c r="G33" s="165" t="s">
         <v>85</v>
       </c>
       <c r="H33" s="82"/>
@@ -4677,19 +4683,19 @@
       <c r="P33" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="Q33" s="274">
+      <c r="Q33" s="273">
         <v>4822</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="173"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="176"/>
+    <row r="34" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="172"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="175"/>
       <c r="I34" s="19"/>
       <c r="J34" s="26"/>
       <c r="K34" s="35" t="s">
@@ -4712,14 +4718,14 @@
       </c>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="91"/>
       <c r="C35" s="91"/>
       <c r="D35" s="91"/>
       <c r="E35" s="91"/>
       <c r="F35" s="91"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="181"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="180"/>
       <c r="I35" s="19"/>
       <c r="J35" s="37"/>
       <c r="K35" s="58" t="s">
@@ -4742,8 +4748,8 @@
       </c>
       <c r="Q35" s="59"/>
     </row>
-    <row r="36" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="179" t="s">
+    <row r="36" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="178" t="s">
         <v>427</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -4758,7 +4764,7 @@
       <c r="E36" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="182" t="s">
+      <c r="F36" s="181" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="35" t="s">
@@ -4782,15 +4788,15 @@
       <c r="O36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="177" t="s">
+      <c r="P36" s="176" t="s">
         <v>369</v>
       </c>
-      <c r="Q36" s="178"/>
+      <c r="Q36" s="177"/>
       <c r="U36" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
       <c r="B37" s="26" t="s">
         <v>99</v>
@@ -4804,7 +4810,7 @@
       <c r="E37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="182" t="s">
+      <c r="F37" s="181" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="35" t="s">
@@ -4817,23 +4823,23 @@
       <c r="J37" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="167" t="s">
+      <c r="K37" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167" t="s">
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="O37" s="167" t="s">
-        <v>13</v>
-      </c>
-      <c r="P37" s="168" t="s">
+      <c r="O37" s="166" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="167" t="s">
         <v>332</v>
       </c>
-      <c r="Q37" s="169"/>
-    </row>
-    <row r="38" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="168"/>
+    </row>
+    <row r="38" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="163"/>
       <c r="B38" s="129" t="s">
         <v>81</v>
@@ -4847,10 +4853,10 @@
       <c r="E38" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="182" t="s">
+      <c r="F38" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="166" t="s">
+      <c r="G38" s="165" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="96"/>
@@ -4858,29 +4864,29 @@
       <c r="J38" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="167" t="s">
+      <c r="K38" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="L38" s="167" t="s">
+      <c r="L38" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="M38" s="167" t="s">
+      <c r="M38" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="167" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="167" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="167" t="s">
+      <c r="N38" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="166" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="169">
+      <c r="Q38" s="168">
         <v>4782</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -4890,30 +4896,30 @@
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="170" t="s">
+      <c r="J39" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="171" t="s">
+      <c r="K39" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="L39" s="171" t="s">
+      <c r="L39" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="171" t="s">
+      <c r="M39" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="171" t="s">
+      <c r="N39" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="171" t="s">
+      <c r="O39" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="Q39" s="172"/>
-    </row>
-    <row r="40" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="171"/>
+    </row>
+    <row r="40" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>102</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="35" t="s">
         <v>106</v>
@@ -5000,7 +5006,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="35" t="s">
         <v>116</v>
@@ -5096,7 +5102,7 @@
       </c>
       <c r="Q43" s="69"/>
     </row>
-    <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="68" t="s">
         <v>119</v>
@@ -5134,14 +5140,14 @@
       <c r="O44" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="189" t="s">
+      <c r="P44" s="188" t="s">
         <v>425</v>
       </c>
       <c r="Q44" s="69">
         <v>4154</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="35" t="s">
         <v>123</v>
@@ -5181,12 +5187,12 @@
       <c r="O45" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="190" t="s">
+      <c r="P45" s="189" t="s">
         <v>85</v>
       </c>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="35" t="s">
         <v>126</v>
@@ -5218,12 +5224,12 @@
       <c r="O46" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="189" t="s">
+      <c r="P46" s="188" t="s">
         <v>437</v>
       </c>
       <c r="Q46" s="69"/>
     </row>
-    <row r="47" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="68" t="s">
         <v>129</v>
@@ -5245,7 +5251,7 @@
       </c>
       <c r="H47" s="36"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="191"/>
+      <c r="J47" s="190"/>
       <c r="K47" s="48" t="s">
         <v>436</v>
       </c>
@@ -5255,12 +5261,12 @@
       <c r="O47" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="192" t="s">
+      <c r="P47" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="Q47" s="193"/>
-    </row>
-    <row r="48" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q47" s="192"/>
+    </row>
+    <row r="48" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="35" t="s">
         <v>390</v>
@@ -5289,7 +5295,7 @@
       <c r="P48" s="31"/>
       <c r="Q48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="94" t="s">
         <v>391</v>
@@ -5322,7 +5328,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="35" t="s">
         <v>419</v>
@@ -5344,7 +5350,7 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="76"/>
-      <c r="J50" s="179" t="s">
+      <c r="J50" s="178" t="s">
         <v>144</v>
       </c>
       <c r="K50" s="92" t="s">
@@ -5369,24 +5375,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="212"/>
-      <c r="B51" s="183" t="s">
+    <row r="51" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="211"/>
+      <c r="B51" s="182" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="183" t="s">
+      <c r="C51" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="183" t="s">
+      <c r="D51" s="182" t="s">
         <v>420</v>
       </c>
-      <c r="E51" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="183" t="s">
+      <c r="E51" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="249" t="s">
+      <c r="G51" s="248" t="s">
         <v>418</v>
       </c>
       <c r="H51" s="15"/>
@@ -5416,13 +5422,13 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="185"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="184"/>
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
       <c r="I52" s="19"/>
@@ -5451,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>393</v>
       </c>
@@ -5473,7 +5479,7 @@
       <c r="G53" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="186">
+      <c r="H53" s="185">
         <v>4122</v>
       </c>
       <c r="I53" s="19"/>
@@ -5500,7 +5506,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>393</v>
       </c>
@@ -5545,7 +5551,7 @@
       </c>
       <c r="Q54" s="102"/>
     </row>
-    <row r="55" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>393</v>
       </c>
@@ -5592,7 +5598,7 @@
       </c>
       <c r="Q55" s="102"/>
     </row>
-    <row r="56" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="135"/>
       <c r="B56" s="126"/>
       <c r="C56" s="126"/>
@@ -5625,7 +5631,7 @@
       </c>
       <c r="Q56" s="102"/>
     </row>
-    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="109" t="s">
         <v>350</v>
       </c>
@@ -5660,7 +5666,7 @@
       </c>
       <c r="Q57" s="102"/>
     </row>
-    <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101" t="s">
         <v>351</v>
       </c>
@@ -5679,37 +5685,37 @@
       <c r="F58" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="204" t="s">
+      <c r="G58" s="203" t="s">
         <v>353</v>
       </c>
-      <c r="H58" s="205"/>
+      <c r="H58" s="204"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="212" t="s">
+      <c r="J58" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="213" t="s">
+      <c r="K58" s="212" t="s">
         <v>339</v>
       </c>
-      <c r="L58" s="213" t="s">
+      <c r="L58" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="213" t="s">
+      <c r="M58" s="212" t="s">
         <v>339</v>
       </c>
-      <c r="N58" s="213" t="s">
+      <c r="N58" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="O58" s="213" t="s">
-        <v>13</v>
-      </c>
-      <c r="P58" s="214" t="s">
+      <c r="O58" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="P58" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="Q58" s="215">
+      <c r="Q58" s="214">
         <v>4145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="104"/>
       <c r="B59" s="98"/>
       <c r="C59" s="98"/>
@@ -5717,7 +5723,7 @@
       <c r="E59" s="98"/>
       <c r="F59" s="98"/>
       <c r="G59" s="99"/>
-      <c r="H59" s="206"/>
+      <c r="H59" s="205"/>
       <c r="I59" s="81"/>
       <c r="J59" s="104"/>
       <c r="K59" s="98"/>
@@ -5728,7 +5734,7 @@
       <c r="P59" s="99"/>
       <c r="Q59" s="105"/>
     </row>
-    <row r="60" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="137"/>
       <c r="B60" s="138"/>
       <c r="C60" s="138"/>
@@ -5736,7 +5742,7 @@
       <c r="E60" s="138"/>
       <c r="F60" s="138"/>
       <c r="G60" s="139"/>
-      <c r="H60" s="223"/>
+      <c r="H60" s="222"/>
       <c r="I60" s="58"/>
       <c r="J60" s="138"/>
       <c r="K60" s="138"/>
@@ -5745,33 +5751,33 @@
       <c r="N60" s="138"/>
       <c r="O60" s="138"/>
       <c r="P60" s="139"/>
-      <c r="Q60" s="224"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="230"/>
-      <c r="B61" s="231"/>
-      <c r="C61" s="231"/>
+      <c r="Q60" s="223"/>
+    </row>
+    <row r="61" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="229"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="226"/>
-      <c r="K61" s="226"/>
-      <c r="L61" s="226"/>
+      <c r="J61" s="225"/>
+      <c r="K61" s="225"/>
+      <c r="L61" s="225"/>
       <c r="M61" s="33"/>
       <c r="N61" s="33"/>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
-      <c r="Q61" s="181"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="211" t="s">
+      <c r="Q61" s="180"/>
+    </row>
+    <row r="62" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="210" t="s">
         <v>413</v>
       </c>
       <c r="B62" s="77"/>
-      <c r="C62" s="210"/>
+      <c r="C62" s="209"/>
       <c r="D62" s="74"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
@@ -5781,7 +5787,7 @@
       <c r="J62" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="K62" s="202"/>
+      <c r="K62" s="201"/>
       <c r="L62" s="77"/>
       <c r="M62" s="138"/>
       <c r="N62" s="138"/>
@@ -5790,7 +5796,7 @@
       <c r="Q62" s="140"/>
       <c r="U62" s="133"/>
     </row>
-    <row r="63" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>2</v>
       </c>
@@ -5842,8 +5848,8 @@
       </c>
       <c r="U63" s="143"/>
     </row>
-    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="196" t="s">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="195" t="s">
         <v>151</v>
       </c>
       <c r="B64" s="114" t="s">
@@ -5868,13 +5874,13 @@
         <v>4894</v>
       </c>
       <c r="I64" s="83"/>
-      <c r="J64" s="196" t="s">
+      <c r="J64" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="K64" s="197" t="s">
+      <c r="K64" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="L64" s="197" t="s">
+      <c r="L64" s="196" t="s">
         <v>66</v>
       </c>
       <c r="M64" s="20" t="s">
@@ -5895,7 +5901,7 @@
       <c r="R64" s="85"/>
       <c r="U64" s="143"/>
     </row>
-    <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79"/>
       <c r="B65" s="97" t="s">
         <v>157</v>
@@ -5941,7 +5947,7 @@
       </c>
       <c r="U65" s="144"/>
     </row>
-    <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="97" t="s">
         <v>163</v>
@@ -5987,7 +5993,7 @@
       </c>
       <c r="U66" s="61"/>
     </row>
-    <row r="67" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="89"/>
       <c r="B67" s="97" t="s">
         <v>167</v>
@@ -6033,7 +6039,7 @@
       </c>
       <c r="U67" s="61"/>
     </row>
-    <row r="68" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="97" t="s">
         <v>170</v>
@@ -6082,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="97" t="s">
         <v>173</v>
@@ -6122,12 +6128,12 @@
       <c r="O69" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P69" s="271" t="s">
+      <c r="P69" s="270" t="s">
         <v>332</v>
       </c>
       <c r="Q69" s="41"/>
     </row>
-    <row r="70" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="97" t="s">
         <v>175</v>
@@ -6164,14 +6170,14 @@
       <c r="O70" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="271" t="s">
+      <c r="P70" s="270" t="s">
         <v>332</v>
       </c>
       <c r="Q70" s="36">
         <v>4604</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="97" t="s">
         <v>334</v>
@@ -6209,29 +6215,29 @@
       <c r="O71" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P71" s="271" t="s">
+      <c r="P71" s="270" t="s">
         <v>332</v>
       </c>
-      <c r="Q71" s="272"/>
-    </row>
-    <row r="72" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q71" s="271"/>
+    </row>
+    <row r="72" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="80"/>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="C72" s="182" t="s">
+      <c r="C72" s="181" t="s">
         <v>337</v>
       </c>
-      <c r="D72" s="182" t="s">
+      <c r="D72" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="E72" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="182" t="s">
+      <c r="E72" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="187" t="s">
+      <c r="G72" s="186" t="s">
         <v>338</v>
       </c>
       <c r="H72" s="113"/>
@@ -6252,13 +6258,13 @@
       <c r="O72" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P72" s="271" t="s">
+      <c r="P72" s="270" t="s">
         <v>332</v>
       </c>
-      <c r="Q72" s="272"/>
-    </row>
-    <row r="73" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="232"/>
+      <c r="Q72" s="271"/>
+    </row>
+    <row r="73" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="231"/>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="D73" s="70"/>
@@ -6283,7 +6289,7 @@
       <c r="O73" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P73" s="271" t="s">
+      <c r="P73" s="270" t="s">
         <v>332</v>
       </c>
       <c r="Q73" s="36"/>
@@ -6291,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>179</v>
       </c>
@@ -6331,12 +6337,12 @@
       <c r="O74" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="P74" s="273" t="s">
+      <c r="P74" s="272" t="s">
         <v>332</v>
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="24" t="s">
         <v>178</v>
       </c>
@@ -6368,7 +6374,7 @@
       <c r="P75" s="31"/>
       <c r="Q75" s="32"/>
     </row>
-    <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="24" t="s">
         <v>180</v>
@@ -6390,7 +6396,7 @@
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="179" t="s">
+      <c r="J76" s="178" t="s">
         <v>340</v>
       </c>
       <c r="K76" s="92" t="s">
@@ -6408,14 +6414,14 @@
       <c r="O76" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="250" t="s">
+      <c r="P76" s="249" t="s">
         <v>332</v>
       </c>
       <c r="Q76" s="93">
         <v>4108</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="24" t="s">
         <v>183</v>
@@ -6450,7 +6456,7 @@
       <c r="P77" s="97"/>
       <c r="Q77" s="102"/>
     </row>
-    <row r="78" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26"/>
       <c r="B78" s="24" t="s">
         <v>184</v>
@@ -6473,19 +6479,19 @@
       <c r="H78" s="25"/>
       <c r="I78" s="19"/>
       <c r="J78" s="163"/>
-      <c r="K78" s="182" t="s">
+      <c r="K78" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="182"/>
-      <c r="O78" s="182" t="s">
+      <c r="L78" s="181"/>
+      <c r="M78" s="181"/>
+      <c r="N78" s="181"/>
+      <c r="O78" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="182"/>
+      <c r="P78" s="181"/>
       <c r="Q78" s="113"/>
     </row>
-    <row r="79" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26"/>
       <c r="B79" s="24" t="s">
         <v>185</v>
@@ -6518,7 +6524,7 @@
       <c r="P79" s="31"/>
       <c r="Q79" s="32"/>
     </row>
-    <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>0</v>
       </c>
@@ -6562,14 +6568,14 @@
       <c r="O80" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P80" s="268" t="s">
+      <c r="P80" s="267" t="s">
         <v>368</v>
       </c>
       <c r="Q80" s="41">
         <v>4830</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="24" t="s">
         <v>191</v>
@@ -6606,12 +6612,12 @@
       <c r="O81" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P81" s="269" t="s">
+      <c r="P81" s="268" t="s">
         <v>368</v>
       </c>
       <c r="Q81" s="36"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="24" t="s">
         <v>195</v>
@@ -6639,14 +6645,14 @@
       <c r="O82" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="269" t="s">
+      <c r="P82" s="268" t="s">
         <v>368</v>
       </c>
       <c r="Q82" s="36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="24" t="s">
         <v>197</v>
@@ -6684,12 +6690,12 @@
       <c r="O83" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P83" s="269" t="s">
+      <c r="P83" s="268" t="s">
         <v>368</v>
       </c>
       <c r="Q83" s="36"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>0</v>
       </c>
@@ -6729,12 +6735,12 @@
       <c r="O84" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="P84" s="270" t="s">
+      <c r="P84" s="269" t="s">
         <v>368</v>
       </c>
       <c r="Q84" s="59"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="127"/>
       <c r="B85" s="24" t="s">
         <v>202</v>
@@ -6749,15 +6755,15 @@
       <c r="H85" s="25"/>
       <c r="I85" s="19"/>
       <c r="J85" s="78"/>
-      <c r="K85" s="208"/>
-      <c r="L85" s="208"/>
-      <c r="M85" s="208"/>
-      <c r="N85" s="208"/>
-      <c r="O85" s="208"/>
-      <c r="P85" s="208"/>
-      <c r="Q85" s="233"/>
-    </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K85" s="207"/>
+      <c r="L85" s="207"/>
+      <c r="M85" s="207"/>
+      <c r="N85" s="207"/>
+      <c r="O85" s="207"/>
+      <c r="P85" s="207"/>
+      <c r="Q85" s="232"/>
+    </row>
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="37"/>
       <c r="B86" s="28" t="s">
         <v>205</v>
@@ -6779,7 +6785,7 @@
       </c>
       <c r="H86" s="29"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="198" t="s">
+      <c r="J86" s="197" t="s">
         <v>397</v>
       </c>
       <c r="K86" s="77"/>
@@ -6790,20 +6796,20 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="234"/>
-      <c r="B87" s="226"/>
-      <c r="C87" s="226"/>
-      <c r="D87" s="226"/>
-      <c r="E87" s="226"/>
-      <c r="F87" s="227"/>
-      <c r="G87" s="226"/>
-      <c r="H87" s="228"/>
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="233"/>
+      <c r="B87" s="225"/>
+      <c r="C87" s="225"/>
+      <c r="D87" s="225"/>
+      <c r="E87" s="225"/>
+      <c r="F87" s="226"/>
+      <c r="G87" s="225"/>
+      <c r="H87" s="227"/>
       <c r="I87" s="19"/>
-      <c r="J87" s="196" t="s">
+      <c r="J87" s="195" t="s">
         <v>193</v>
       </c>
-      <c r="K87" s="197">
+      <c r="K87" s="196">
         <v>1124</v>
       </c>
       <c r="L87" s="20" t="s">
@@ -6823,7 +6829,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="109" t="s">
         <v>343</v>
       </c>
@@ -6842,7 +6848,7 @@
       <c r="F88" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="250" t="s">
+      <c r="G88" s="249" t="s">
         <v>338</v>
       </c>
       <c r="H88" s="93" t="s">
@@ -6870,7 +6876,7 @@
       </c>
       <c r="Q88" s="25"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="107"/>
       <c r="B89" s="97" t="s">
         <v>345</v>
@@ -6885,7 +6891,7 @@
       <c r="F89" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="204" t="s">
+      <c r="G89" s="203" t="s">
         <v>338</v>
       </c>
       <c r="H89" s="102"/>
@@ -6911,7 +6917,7 @@
       </c>
       <c r="Q89" s="25"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="106"/>
       <c r="B90" s="97" t="s">
         <v>346</v>
@@ -6928,7 +6934,7 @@
       <c r="F90" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G90" s="204" t="s">
+      <c r="G90" s="203" t="s">
         <v>338</v>
       </c>
       <c r="H90" s="102"/>
@@ -6954,24 +6960,24 @@
       </c>
       <c r="Q90" s="25"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="108"/>
-      <c r="B91" s="182" t="s">
+      <c r="B91" s="181" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="182" t="s">
+      <c r="C91" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="182" t="s">
+      <c r="D91" s="181" t="s">
         <v>347</v>
       </c>
-      <c r="E91" s="182" t="s">
+      <c r="E91" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="182" t="s">
+      <c r="F91" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="187" t="s">
+      <c r="G91" s="186" t="s">
         <v>338</v>
       </c>
       <c r="H91" s="113"/>
@@ -6997,15 +7003,15 @@
       </c>
       <c r="Q91" s="25"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="157"/>
-      <c r="B92" s="263"/>
-      <c r="C92" s="263"/>
-      <c r="D92" s="263"/>
-      <c r="E92" s="263"/>
-      <c r="F92" s="264"/>
-      <c r="G92" s="263"/>
-      <c r="H92" s="265"/>
+      <c r="B92" s="262"/>
+      <c r="C92" s="262"/>
+      <c r="D92" s="262"/>
+      <c r="E92" s="262"/>
+      <c r="F92" s="263"/>
+      <c r="G92" s="262"/>
+      <c r="H92" s="264"/>
       <c r="I92" s="19"/>
       <c r="J92" s="26" t="s">
         <v>0</v>
@@ -7030,7 +7036,7 @@
       </c>
       <c r="Q92" s="25"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="119" t="s">
         <v>370</v>
       </c>
@@ -7049,10 +7055,10 @@
       <c r="F93" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="266" t="s">
+      <c r="G93" s="265" t="s">
         <v>338</v>
       </c>
-      <c r="H93" s="267"/>
+      <c r="H93" s="266"/>
       <c r="I93" s="19"/>
       <c r="J93" s="37" t="s">
         <v>0</v>
@@ -7077,7 +7083,7 @@
       </c>
       <c r="Q93" s="29"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="35" t="s">
         <v>372</v>
@@ -7108,7 +7114,7 @@
       <c r="P94" s="64"/>
       <c r="Q94" s="86"/>
     </row>
-    <row r="95" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="35" t="s">
         <v>373</v>
@@ -7149,7 +7155,7 @@
       <c r="P95" s="20"/>
       <c r="Q95" s="41"/>
     </row>
-    <row r="96" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="35" t="s">
         <v>51</v>
@@ -7184,7 +7190,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="80"/>
       <c r="B97" s="58" t="s">
         <v>51</v>
@@ -7213,15 +7219,15 @@
       </c>
       <c r="Q97" s="36"/>
     </row>
-    <row r="98" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="195"/>
-      <c r="B98" s="194"/>
+    <row r="98" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="194"/>
+      <c r="B98" s="193"/>
       <c r="C98" s="78"/>
       <c r="D98" s="78"/>
       <c r="E98" s="78"/>
       <c r="F98" s="78"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="216"/>
+      <c r="G98" s="215"/>
+      <c r="H98" s="215"/>
       <c r="I98" s="19"/>
       <c r="J98" s="26"/>
       <c r="K98" s="24" t="s">
@@ -7238,11 +7244,11 @@
       </c>
       <c r="Q98" s="36"/>
     </row>
-    <row r="99" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="207"/>
+      <c r="B99" s="206"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
@@ -7265,7 +7271,7 @@
       </c>
       <c r="Q99" s="59"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="63" t="s">
         <v>209</v>
       </c>
@@ -7300,7 +7306,7 @@
       <c r="P100" s="78"/>
       <c r="Q100" s="46"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="35" t="s">
         <v>213</v>
@@ -7345,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="35" t="s">
         <v>96</v>
@@ -7382,7 +7388,7 @@
       <c r="P102" s="24"/>
       <c r="Q102" s="36"/>
     </row>
-    <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="35" t="s">
         <v>96</v>
@@ -7421,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="35" t="s">
         <v>96</v>
@@ -7458,7 +7464,7 @@
       </c>
       <c r="Q104" s="36"/>
     </row>
-    <row r="105" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="35" t="s">
         <v>96</v>
@@ -7495,7 +7501,7 @@
       </c>
       <c r="Q105" s="36"/>
     </row>
-    <row r="106" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="35" t="s">
         <v>220</v>
@@ -7534,7 +7540,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="35" t="s">
         <v>223</v>
@@ -7571,7 +7577,7 @@
       </c>
       <c r="Q107" s="36"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="35" t="s">
         <v>225</v>
@@ -7610,7 +7616,7 @@
       </c>
       <c r="Q108" s="36"/>
     </row>
-    <row r="109" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="35" t="s">
         <v>230</v>
@@ -7647,7 +7653,7 @@
       </c>
       <c r="Q109" s="36"/>
     </row>
-    <row r="110" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="35" t="s">
         <v>233</v>
@@ -7684,7 +7690,7 @@
       </c>
       <c r="Q110" s="36"/>
     </row>
-    <row r="111" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37"/>
       <c r="B111" s="58" t="s">
         <v>236</v>
@@ -7717,7 +7723,7 @@
       </c>
       <c r="Q111" s="36"/>
     </row>
-    <row r="112" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -7728,27 +7734,27 @@
       <c r="H112" s="32"/>
       <c r="I112" s="19"/>
       <c r="J112" s="127"/>
-      <c r="K112" s="219" t="s">
+      <c r="K112" s="218" t="s">
         <v>266</v>
       </c>
-      <c r="L112" s="219" t="s">
+      <c r="L112" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="M112" s="219" t="s">
+      <c r="M112" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="N112" s="219" t="s">
+      <c r="N112" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="O112" s="219" t="s">
+      <c r="O112" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="P112" s="219" t="s">
+      <c r="P112" s="218" t="s">
         <v>67</v>
       </c>
       <c r="Q112" s="15"/>
     </row>
-    <row r="113" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="63" t="s">
         <v>244</v>
       </c>
@@ -7783,7 +7789,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="10"/>
     </row>
-    <row r="114" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>0</v>
       </c>
@@ -7807,8 +7813,8 @@
       </c>
       <c r="H114" s="36"/>
       <c r="I114" s="19"/>
-      <c r="J114" s="251"/>
-      <c r="K114" s="255"/>
+      <c r="J114" s="250"/>
+      <c r="K114" s="254"/>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
       <c r="N114" s="40"/>
@@ -7816,7 +7822,7 @@
       <c r="P114" s="40"/>
       <c r="Q114" s="41"/>
     </row>
-    <row r="115" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="35" t="s">
         <v>257</v>
@@ -7840,32 +7846,32 @@
         <v>0</v>
       </c>
       <c r="I115" s="19"/>
-      <c r="J115" s="256" t="s">
+      <c r="J115" s="255" t="s">
         <v>399</v>
       </c>
-      <c r="K115" s="257" t="s">
+      <c r="K115" s="256" t="s">
         <v>401</v>
       </c>
-      <c r="L115" s="257" t="s">
+      <c r="L115" s="256" t="s">
         <v>348</v>
       </c>
-      <c r="M115" s="257" t="s">
+      <c r="M115" s="256" t="s">
         <v>401</v>
       </c>
-      <c r="N115" s="257" t="s">
-        <v>12</v>
-      </c>
-      <c r="O115" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="P115" s="258" t="s">
+      <c r="N115" s="256" t="s">
+        <v>12</v>
+      </c>
+      <c r="O115" s="256" t="s">
+        <v>13</v>
+      </c>
+      <c r="P115" s="257" t="s">
         <v>402</v>
       </c>
-      <c r="Q115" s="259">
+      <c r="Q115" s="258">
         <v>4349</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="35" t="s">
         <v>262</v>
@@ -7881,28 +7887,28 @@
       </c>
       <c r="H116" s="36"/>
       <c r="I116" s="19"/>
-      <c r="J116" s="256"/>
-      <c r="K116" s="257" t="s">
+      <c r="J116" s="255"/>
+      <c r="K116" s="256" t="s">
         <v>400</v>
       </c>
-      <c r="L116" s="257" t="s">
+      <c r="L116" s="256" t="s">
         <v>349</v>
       </c>
-      <c r="M116" s="257" t="s">
+      <c r="M116" s="256" t="s">
         <v>400</v>
       </c>
-      <c r="N116" s="257" t="s">
+      <c r="N116" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="O116" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="P116" s="258" t="s">
+      <c r="O116" s="256" t="s">
+        <v>13</v>
+      </c>
+      <c r="P116" s="257" t="s">
         <v>402</v>
       </c>
-      <c r="Q116" s="259"/>
-    </row>
-    <row r="117" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q116" s="258"/>
+    </row>
+    <row r="117" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="26"/>
       <c r="B117" s="35" t="s">
         <v>265</v>
@@ -7918,16 +7924,16 @@
       </c>
       <c r="H117" s="36"/>
       <c r="I117" s="19"/>
-      <c r="J117" s="260"/>
-      <c r="K117" s="261"/>
-      <c r="L117" s="261"/>
-      <c r="M117" s="261"/>
-      <c r="N117" s="261"/>
-      <c r="O117" s="261"/>
-      <c r="P117" s="261"/>
-      <c r="Q117" s="262"/>
-    </row>
-    <row r="118" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J117" s="259"/>
+      <c r="K117" s="260"/>
+      <c r="L117" s="260"/>
+      <c r="M117" s="260"/>
+      <c r="N117" s="260"/>
+      <c r="O117" s="260"/>
+      <c r="P117" s="260"/>
+      <c r="Q117" s="261"/>
+    </row>
+    <row r="118" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="35" t="s">
         <v>267</v>
@@ -7952,8 +7958,8 @@
       <c r="P118" s="78"/>
       <c r="Q118" s="46"/>
     </row>
-    <row r="119" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="188"/>
+    <row r="119" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="187"/>
       <c r="B119" s="58" t="s">
         <v>268</v>
       </c>
@@ -7977,8 +7983,8 @@
       <c r="P119" s="35"/>
       <c r="Q119" s="36"/>
     </row>
-    <row r="120" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="201"/>
+    <row r="120" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="200"/>
       <c r="B120" s="64"/>
       <c r="C120" s="64"/>
       <c r="D120" s="64"/>
@@ -7986,7 +7992,7 @@
       <c r="F120" s="64"/>
       <c r="G120" s="64"/>
       <c r="H120" s="64"/>
-      <c r="I120" s="235"/>
+      <c r="I120" s="234"/>
       <c r="J120" s="64"/>
       <c r="K120" s="64"/>
       <c r="L120" s="64"/>
@@ -7996,7 +8002,7 @@
       <c r="P120" s="64"/>
       <c r="Q120" s="86"/>
     </row>
-    <row r="121" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="65"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -8005,7 +8011,7 @@
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
       <c r="H121" s="40"/>
-      <c r="I121" s="218"/>
+      <c r="I121" s="217"/>
       <c r="J121" s="40"/>
       <c r="K121" s="40"/>
       <c r="L121" s="40"/>
@@ -8015,11 +8021,11 @@
       <c r="P121" s="40"/>
       <c r="Q121" s="41"/>
     </row>
-    <row r="122" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="242" t="s">
+    <row r="122" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="241" t="s">
         <v>438</v>
       </c>
-      <c r="B122" s="236"/>
+      <c r="B122" s="235"/>
       <c r="C122" s="73"/>
       <c r="D122" s="11"/>
       <c r="E122" s="12"/>
@@ -8027,7 +8033,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="209" t="s">
+      <c r="J122" s="208" t="s">
         <v>397</v>
       </c>
       <c r="K122" s="77"/>
@@ -8038,7 +8044,7 @@
       <c r="P122" s="12"/>
       <c r="Q122" s="15"/>
     </row>
-    <row r="123" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="63" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>273</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="35" t="s">
         <v>96</v>
@@ -8172,11 +8178,11 @@
         <v>75</v>
       </c>
       <c r="Q125" s="36"/>
-      <c r="T125" s="217" t="s">
+      <c r="T125" s="216" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="35" t="s">
         <v>96</v>
@@ -8215,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
         <v>15</v>
       </c>
@@ -8260,7 +8266,7 @@
       </c>
       <c r="Q127" s="36"/>
     </row>
-    <row r="128" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>15</v>
       </c>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="Q128" s="36"/>
     </row>
-    <row r="129" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
         <v>15</v>
       </c>
@@ -8352,7 +8358,7 @@
       </c>
       <c r="Q129" s="36"/>
     </row>
-    <row r="130" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
         <v>15</v>
       </c>
@@ -8397,7 +8403,7 @@
       </c>
       <c r="Q130" s="36"/>
     </row>
-    <row r="131" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
         <v>15</v>
       </c>
@@ -8442,7 +8448,7 @@
       </c>
       <c r="Q131" s="36"/>
     </row>
-    <row r="132" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="24" t="s">
         <v>302</v>
@@ -8485,7 +8491,7 @@
       </c>
       <c r="Q132" s="36"/>
     </row>
-    <row r="133" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="24" t="s">
         <v>306</v>
@@ -8532,7 +8538,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="35" t="s">
         <v>308</v>
@@ -8575,7 +8581,7 @@
       </c>
       <c r="Q134" s="36"/>
     </row>
-    <row r="135" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="35" t="s">
         <v>310</v>
@@ -8610,7 +8616,7 @@
       </c>
       <c r="Q135" s="36"/>
     </row>
-    <row r="136" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="66"/>
       <c r="B136" s="35" t="s">
         <v>311</v>
@@ -8653,8 +8659,8 @@
       </c>
       <c r="Q136" s="59"/>
     </row>
-    <row r="137" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="253"/>
+    <row r="137" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="252"/>
       <c r="B137" s="58" t="s">
         <v>313</v>
       </c>
@@ -8684,15 +8690,15 @@
       <c r="P137" s="126"/>
       <c r="Q137" s="62"/>
     </row>
-    <row r="138" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="243"/>
-      <c r="B138" s="225"/>
-      <c r="C138" s="225"/>
-      <c r="D138" s="225"/>
-      <c r="E138" s="225"/>
-      <c r="F138" s="237"/>
-      <c r="G138" s="225"/>
-      <c r="H138" s="225"/>
+    <row r="138" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="242"/>
+      <c r="B138" s="224"/>
+      <c r="C138" s="224"/>
+      <c r="D138" s="224"/>
+      <c r="E138" s="224"/>
+      <c r="F138" s="236"/>
+      <c r="G138" s="224"/>
+      <c r="H138" s="224"/>
       <c r="I138" s="60"/>
       <c r="J138" s="22" t="s">
         <v>312</v>
@@ -8717,8 +8723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="179" t="s">
+    <row r="139" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="178" t="s">
         <v>406</v>
       </c>
       <c r="B139" s="92" t="s">
@@ -8736,7 +8742,7 @@
       <c r="F139" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G139" s="250" t="s">
+      <c r="G139" s="249" t="s">
         <v>389</v>
       </c>
       <c r="H139" s="93"/>
@@ -8764,7 +8770,7 @@
       </c>
       <c r="Q139" s="25"/>
     </row>
-    <row r="140" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="101" t="s">
         <v>407</v>
       </c>
@@ -8783,7 +8789,7 @@
       <c r="F140" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="204" t="s">
+      <c r="G140" s="203" t="s">
         <v>389</v>
       </c>
       <c r="H140" s="102"/>
@@ -8811,7 +8817,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="101"/>
       <c r="B141" s="97" t="s">
         <v>410</v>
@@ -8828,7 +8834,7 @@
       <c r="F141" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G141" s="204" t="s">
+      <c r="G141" s="203" t="s">
         <v>389</v>
       </c>
       <c r="H141" s="102"/>
@@ -8854,24 +8860,24 @@
       </c>
       <c r="Q141" s="25"/>
     </row>
-    <row r="142" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="163"/>
-      <c r="B142" s="182" t="s">
+      <c r="B142" s="181" t="s">
         <v>411</v>
       </c>
-      <c r="C142" s="182" t="s">
+      <c r="C142" s="181" t="s">
         <v>381</v>
       </c>
-      <c r="D142" s="182" t="s">
+      <c r="D142" s="181" t="s">
         <v>411</v>
       </c>
-      <c r="E142" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="182" t="s">
+      <c r="E142" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="G142" s="187" t="s">
+      <c r="G142" s="186" t="s">
         <v>389</v>
       </c>
       <c r="H142" s="113"/>
@@ -8897,15 +8903,15 @@
       </c>
       <c r="Q142" s="25"/>
     </row>
-    <row r="143" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="238"/>
-      <c r="B143" s="239"/>
-      <c r="C143" s="239"/>
-      <c r="D143" s="239"/>
-      <c r="E143" s="239"/>
-      <c r="F143" s="240"/>
-      <c r="G143" s="239"/>
-      <c r="H143" s="241"/>
+    <row r="143" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="237"/>
+      <c r="B143" s="238"/>
+      <c r="C143" s="238"/>
+      <c r="D143" s="238"/>
+      <c r="E143" s="238"/>
+      <c r="F143" s="239"/>
+      <c r="G143" s="238"/>
+      <c r="H143" s="240"/>
       <c r="I143" s="60"/>
       <c r="J143" s="23"/>
       <c r="K143" s="24" t="s">
@@ -8928,7 +8934,7 @@
       </c>
       <c r="Q143" s="25"/>
     </row>
-    <row r="144" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>441</v>
       </c>
@@ -8961,7 +8967,7 @@
       </c>
       <c r="Q144" s="25"/>
     </row>
-    <row r="145" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="109" t="s">
         <v>430</v>
       </c>
@@ -9000,7 +9006,7 @@
       </c>
       <c r="Q145" s="25"/>
     </row>
-    <row r="146" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="106" t="s">
         <v>431</v>
       </c>
@@ -9039,8 +9045,8 @@
       </c>
       <c r="Q146" s="25"/>
     </row>
-    <row r="147" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="188"/>
+    <row r="147" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="187"/>
       <c r="B147" s="149"/>
       <c r="C147" s="149"/>
       <c r="D147" s="149"/>
@@ -9067,15 +9073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="243"/>
-      <c r="B148" s="225"/>
-      <c r="C148" s="225"/>
-      <c r="D148" s="225"/>
-      <c r="E148" s="225"/>
-      <c r="F148" s="237"/>
-      <c r="G148" s="225"/>
-      <c r="H148" s="225"/>
+    <row r="148" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="242"/>
+      <c r="B148" s="224"/>
+      <c r="C148" s="224"/>
+      <c r="D148" s="224"/>
+      <c r="E148" s="224"/>
+      <c r="F148" s="236"/>
+      <c r="G148" s="224"/>
+      <c r="H148" s="224"/>
       <c r="I148" s="60"/>
       <c r="J148" s="27" t="s">
         <v>0</v>
@@ -9094,8 +9100,8 @@
       </c>
       <c r="Q148" s="29"/>
     </row>
-    <row r="149" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="251" t="s">
+    <row r="149" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="250" t="s">
         <v>395</v>
       </c>
       <c r="B149" s="92" t="s">
@@ -9113,22 +9119,22 @@
       <c r="F149" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="G149" s="250" t="s">
+      <c r="G149" s="249" t="s">
         <v>368</v>
       </c>
       <c r="H149" s="93"/>
-      <c r="I149" s="221"/>
-      <c r="J149" s="229"/>
-      <c r="K149" s="229"/>
-      <c r="L149" s="229"/>
-      <c r="M149" s="229"/>
-      <c r="N149" s="229"/>
-      <c r="O149" s="229"/>
-      <c r="P149" s="229"/>
-      <c r="Q149" s="244"/>
-    </row>
-    <row r="150" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="252"/>
+      <c r="I149" s="220"/>
+      <c r="J149" s="228"/>
+      <c r="K149" s="228"/>
+      <c r="L149" s="228"/>
+      <c r="M149" s="228"/>
+      <c r="N149" s="228"/>
+      <c r="O149" s="228"/>
+      <c r="P149" s="228"/>
+      <c r="Q149" s="243"/>
+    </row>
+    <row r="150" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="251"/>
       <c r="B150" s="97" t="s">
         <v>375</v>
       </c>
@@ -9144,24 +9150,24 @@
       <c r="F150" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G150" s="204" t="s">
+      <c r="G150" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H150" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I150" s="221"/>
-      <c r="J150" s="220"/>
-      <c r="K150" s="220"/>
-      <c r="L150" s="220"/>
-      <c r="M150" s="220"/>
-      <c r="N150" s="220"/>
-      <c r="O150" s="220"/>
-      <c r="P150" s="220"/>
+      <c r="I150" s="220"/>
+      <c r="J150" s="219"/>
+      <c r="K150" s="219"/>
+      <c r="L150" s="219"/>
+      <c r="M150" s="219"/>
+      <c r="N150" s="219"/>
+      <c r="O150" s="219"/>
+      <c r="P150" s="219"/>
       <c r="Q150" s="53"/>
     </row>
-    <row r="151" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="252"/>
+    <row r="151" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="251"/>
       <c r="B151" s="97" t="s">
         <v>394</v>
       </c>
@@ -9177,22 +9183,22 @@
       <c r="F151" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G151" s="204" t="s">
+      <c r="G151" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H151" s="36"/>
-      <c r="I151" s="221"/>
-      <c r="J151" s="220"/>
-      <c r="K151" s="220"/>
-      <c r="L151" s="220"/>
-      <c r="M151" s="220"/>
-      <c r="N151" s="220"/>
-      <c r="O151" s="220"/>
-      <c r="P151" s="220"/>
+      <c r="I151" s="220"/>
+      <c r="J151" s="219"/>
+      <c r="K151" s="219"/>
+      <c r="L151" s="219"/>
+      <c r="M151" s="219"/>
+      <c r="N151" s="219"/>
+      <c r="O151" s="219"/>
+      <c r="P151" s="219"/>
       <c r="Q151" s="53"/>
     </row>
-    <row r="152" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="252"/>
+    <row r="152" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="251"/>
       <c r="B152" s="97" t="s">
         <v>376</v>
       </c>
@@ -9208,22 +9214,22 @@
       <c r="F152" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="G152" s="204" t="s">
+      <c r="G152" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H152" s="102"/>
-      <c r="I152" s="221"/>
-      <c r="J152" s="220"/>
-      <c r="K152" s="220"/>
-      <c r="L152" s="220"/>
-      <c r="M152" s="220"/>
-      <c r="N152" s="220"/>
-      <c r="O152" s="220"/>
-      <c r="P152" s="220"/>
+      <c r="I152" s="220"/>
+      <c r="J152" s="219"/>
+      <c r="K152" s="219"/>
+      <c r="L152" s="219"/>
+      <c r="M152" s="219"/>
+      <c r="N152" s="219"/>
+      <c r="O152" s="219"/>
+      <c r="P152" s="219"/>
       <c r="Q152" s="53"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="252"/>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="251"/>
       <c r="B153" s="97" t="s">
         <v>377</v>
       </c>
@@ -9239,22 +9245,22 @@
       <c r="F153" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G153" s="204" t="s">
+      <c r="G153" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H153" s="102"/>
-      <c r="I153" s="221"/>
-      <c r="J153" s="220"/>
-      <c r="K153" s="220"/>
-      <c r="L153" s="220"/>
-      <c r="M153" s="220"/>
-      <c r="N153" s="220"/>
-      <c r="O153" s="220"/>
-      <c r="P153" s="220"/>
+      <c r="I153" s="220"/>
+      <c r="J153" s="219"/>
+      <c r="K153" s="219"/>
+      <c r="L153" s="219"/>
+      <c r="M153" s="219"/>
+      <c r="N153" s="219"/>
+      <c r="O153" s="219"/>
+      <c r="P153" s="219"/>
       <c r="Q153" s="53"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="252"/>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="251"/>
       <c r="B154" s="97" t="s">
         <v>386</v>
       </c>
@@ -9270,22 +9276,22 @@
       <c r="F154" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G154" s="204" t="s">
+      <c r="G154" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H154" s="102"/>
-      <c r="I154" s="221"/>
-      <c r="J154" s="220"/>
-      <c r="K154" s="220"/>
-      <c r="L154" s="220"/>
-      <c r="M154" s="220"/>
-      <c r="N154" s="220"/>
-      <c r="O154" s="220"/>
-      <c r="P154" s="220"/>
+      <c r="I154" s="220"/>
+      <c r="J154" s="219"/>
+      <c r="K154" s="219"/>
+      <c r="L154" s="219"/>
+      <c r="M154" s="219"/>
+      <c r="N154" s="219"/>
+      <c r="O154" s="219"/>
+      <c r="P154" s="219"/>
       <c r="Q154" s="53"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="252"/>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="251"/>
       <c r="B155" s="97" t="s">
         <v>378</v>
       </c>
@@ -9301,22 +9307,22 @@
       <c r="F155" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G155" s="204" t="s">
+      <c r="G155" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H155" s="102"/>
-      <c r="I155" s="221"/>
-      <c r="J155" s="220"/>
-      <c r="K155" s="220"/>
-      <c r="L155" s="220"/>
-      <c r="M155" s="220"/>
-      <c r="N155" s="220"/>
-      <c r="O155" s="220"/>
-      <c r="P155" s="220"/>
+      <c r="I155" s="220"/>
+      <c r="J155" s="219"/>
+      <c r="K155" s="219"/>
+      <c r="L155" s="219"/>
+      <c r="M155" s="219"/>
+      <c r="N155" s="219"/>
+      <c r="O155" s="219"/>
+      <c r="P155" s="219"/>
       <c r="Q155" s="53"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="252"/>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="251"/>
       <c r="B156" s="97" t="s">
         <v>379</v>
       </c>
@@ -9332,52 +9338,52 @@
       <c r="F156" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G156" s="204" t="s">
+      <c r="G156" s="203" t="s">
         <v>368</v>
       </c>
       <c r="H156" s="102"/>
-      <c r="I156" s="222"/>
+      <c r="I156" s="221"/>
       <c r="J156" s="123"/>
       <c r="K156" s="123"/>
-      <c r="L156" s="220"/>
-      <c r="M156" s="220"/>
-      <c r="N156" s="220"/>
-      <c r="O156" s="220"/>
-      <c r="P156" s="220"/>
+      <c r="L156" s="219"/>
+      <c r="M156" s="219"/>
+      <c r="N156" s="219"/>
+      <c r="O156" s="219"/>
+      <c r="P156" s="219"/>
       <c r="Q156" s="53"/>
     </row>
-    <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="253"/>
-      <c r="B157" s="182" t="s">
+    <row r="157" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="252"/>
+      <c r="B157" s="181" t="s">
         <v>380</v>
       </c>
-      <c r="C157" s="182" t="s">
+      <c r="C157" s="181" t="s">
         <v>385</v>
       </c>
-      <c r="D157" s="182" t="s">
+      <c r="D157" s="181" t="s">
         <v>380</v>
       </c>
-      <c r="E157" s="182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="182" t="s">
+      <c r="E157" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="G157" s="187" t="s">
+      <c r="G157" s="186" t="s">
         <v>368</v>
       </c>
-      <c r="H157" s="254"/>
-      <c r="I157" s="222"/>
+      <c r="H157" s="253"/>
+      <c r="I157" s="221"/>
       <c r="J157" s="123"/>
       <c r="K157" s="123"/>
-      <c r="L157" s="220"/>
-      <c r="M157" s="220"/>
-      <c r="N157" s="220"/>
-      <c r="O157" s="220"/>
-      <c r="P157" s="220"/>
+      <c r="L157" s="219"/>
+      <c r="M157" s="219"/>
+      <c r="N157" s="219"/>
+      <c r="O157" s="219"/>
+      <c r="P157" s="219"/>
       <c r="Q157" s="53"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="87"/>
       <c r="B158" s="132"/>
       <c r="C158" s="132"/>
@@ -9394,10 +9400,10 @@
       <c r="N158" s="123"/>
       <c r="O158" s="123"/>
       <c r="P158" s="123"/>
-      <c r="Q158" s="245"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="246"/>
+      <c r="Q158" s="244"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="245"/>
       <c r="B159" s="123"/>
       <c r="C159" s="123"/>
       <c r="D159" s="123"/>
@@ -9413,10 +9419,10 @@
       <c r="N159" s="123"/>
       <c r="O159" s="123"/>
       <c r="P159" s="123"/>
-      <c r="Q159" s="245"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="247"/>
+      <c r="Q159" s="244"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="246"/>
       <c r="B160" s="123"/>
       <c r="C160" s="123"/>
       <c r="D160" s="123"/>
@@ -9432,9 +9438,9 @@
       <c r="N160" s="123"/>
       <c r="O160" s="123"/>
       <c r="P160" s="123"/>
-      <c r="Q160" s="245"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q160" s="244"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="66"/>
       <c r="B161" s="123"/>
       <c r="C161" s="123"/>
@@ -9451,9 +9457,9 @@
       <c r="N161" s="123"/>
       <c r="O161" s="123"/>
       <c r="P161" s="123"/>
-      <c r="Q161" s="245"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q161" s="244"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="66"/>
       <c r="B162" s="123"/>
       <c r="C162" s="123"/>
@@ -9470,9 +9476,9 @@
       <c r="N162" s="123"/>
       <c r="O162" s="123"/>
       <c r="P162" s="123"/>
-      <c r="Q162" s="245"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q162" s="244"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="66"/>
       <c r="B163" s="123"/>
       <c r="C163" s="123"/>
@@ -9489,9 +9495,9 @@
       <c r="N163" s="123"/>
       <c r="O163" s="123"/>
       <c r="P163" s="123"/>
-      <c r="Q163" s="245"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q163" s="244"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="66"/>
       <c r="B164" s="123"/>
       <c r="C164" s="123"/>
@@ -9508,9 +9514,9 @@
       <c r="N164" s="123"/>
       <c r="O164" s="123"/>
       <c r="P164" s="123"/>
-      <c r="Q164" s="245"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q164" s="244"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="66"/>
       <c r="B165" s="123"/>
       <c r="C165" s="123"/>
@@ -9527,9 +9533,9 @@
       <c r="N165" s="123"/>
       <c r="O165" s="123"/>
       <c r="P165" s="123"/>
-      <c r="Q165" s="245"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q165" s="244"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="66"/>
       <c r="B166" s="123"/>
       <c r="C166" s="123"/>
@@ -9546,9 +9552,9 @@
       <c r="N166" s="123"/>
       <c r="O166" s="123"/>
       <c r="P166" s="123"/>
-      <c r="Q166" s="245"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q166" s="244"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="66"/>
       <c r="B167" s="123"/>
       <c r="C167" s="123"/>
@@ -9565,9 +9571,9 @@
       <c r="N167" s="123"/>
       <c r="O167" s="123"/>
       <c r="P167" s="123"/>
-      <c r="Q167" s="245"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q167" s="244"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="66"/>
       <c r="B168" s="123"/>
       <c r="C168" s="123"/>
@@ -9584,9 +9590,9 @@
       <c r="N168" s="123"/>
       <c r="O168" s="123"/>
       <c r="P168" s="123"/>
-      <c r="Q168" s="245"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q168" s="244"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="66"/>
       <c r="B169" s="123"/>
       <c r="C169" s="123"/>
@@ -9603,9 +9609,9 @@
       <c r="N169" s="123"/>
       <c r="O169" s="123"/>
       <c r="P169" s="123"/>
-      <c r="Q169" s="245"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q169" s="244"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="66"/>
       <c r="B170" s="123"/>
       <c r="C170" s="123"/>
@@ -9622,9 +9628,9 @@
       <c r="N170" s="123"/>
       <c r="O170" s="123"/>
       <c r="P170" s="123"/>
-      <c r="Q170" s="245"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q170" s="244"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="66"/>
       <c r="B171" s="123"/>
       <c r="C171" s="123"/>
@@ -9641,9 +9647,9 @@
       <c r="N171" s="123"/>
       <c r="O171" s="123"/>
       <c r="P171" s="123"/>
-      <c r="Q171" s="245"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q171" s="244"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="66"/>
       <c r="B172" s="123"/>
       <c r="C172" s="123"/>
@@ -9660,9 +9666,9 @@
       <c r="N172" s="123"/>
       <c r="O172" s="123"/>
       <c r="P172" s="123"/>
-      <c r="Q172" s="245"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q172" s="244"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="66"/>
       <c r="B173" s="123"/>
       <c r="C173" s="123"/>
@@ -9679,9 +9685,9 @@
       <c r="N173" s="123"/>
       <c r="O173" s="123"/>
       <c r="P173" s="123"/>
-      <c r="Q173" s="245"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q173" s="244"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="66"/>
       <c r="B174" s="123"/>
       <c r="C174" s="123"/>
@@ -9698,10 +9704,10 @@
       <c r="N174" s="123"/>
       <c r="O174" s="123"/>
       <c r="P174" s="123"/>
-      <c r="Q174" s="245"/>
-    </row>
-    <row r="175" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="188"/>
+      <c r="Q174" s="244"/>
+    </row>
+    <row r="175" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="187"/>
       <c r="B175" s="149"/>
       <c r="C175" s="149"/>
       <c r="D175" s="149"/>
@@ -9720,6 +9726,7 @@
       <c r="Q175" s="82"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9731,9 +9738,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9747,9 +9754,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
